--- a/Code/Results/Cases/Case_3_85/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_85/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.03397106252661</v>
+        <v>13.83153325455461</v>
       </c>
       <c r="C2">
-        <v>15.60080951610229</v>
+        <v>9.518543096261279</v>
       </c>
       <c r="D2">
-        <v>6.255640217391678</v>
+        <v>9.870090033227875</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>26.79143748701084</v>
+        <v>33.76480328072879</v>
       </c>
       <c r="G2">
-        <v>33.43723732858184</v>
+        <v>35.76278588855376</v>
       </c>
       <c r="H2">
-        <v>10.5396066501651</v>
+        <v>15.74858100197578</v>
       </c>
       <c r="I2">
-        <v>14.54895846255379</v>
+        <v>21.8912410362051</v>
       </c>
       <c r="J2">
-        <v>6.425605802062012</v>
+        <v>10.95745808059241</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.74853707505733</v>
+        <v>17.9406722268067</v>
       </c>
       <c r="N2">
-        <v>11.58762081389173</v>
+        <v>17.79768077018286</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.67125408052097</v>
+        <v>13.3357796900488</v>
       </c>
       <c r="C3">
-        <v>14.53177316762902</v>
+        <v>9.05576583863513</v>
       </c>
       <c r="D3">
-        <v>6.110590674197442</v>
+        <v>9.865177462125187</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>25.91622507517237</v>
+        <v>33.72546402556804</v>
       </c>
       <c r="G3">
-        <v>31.96520606771974</v>
+        <v>35.58433846846839</v>
       </c>
       <c r="H3">
-        <v>10.40214865570053</v>
+        <v>15.77933918091383</v>
       </c>
       <c r="I3">
-        <v>14.4934746369098</v>
+        <v>21.96714252851059</v>
       </c>
       <c r="J3">
-        <v>6.428565170791474</v>
+        <v>10.98322009818914</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.92779753813894</v>
+        <v>17.79489313370272</v>
       </c>
       <c r="N3">
-        <v>11.81455796352477</v>
+        <v>17.86314968782587</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.78659636175949</v>
+        <v>13.02437772636632</v>
       </c>
       <c r="C4">
-        <v>13.83857455281576</v>
+        <v>8.760825294059387</v>
       </c>
       <c r="D4">
-        <v>6.022237762069383</v>
+        <v>9.863368163505468</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>25.39278450895049</v>
+        <v>33.71116860927007</v>
       </c>
       <c r="G4">
-        <v>31.06971797354224</v>
+        <v>35.48799320176884</v>
       </c>
       <c r="H4">
-        <v>10.32687441120852</v>
+        <v>15.80174420562722</v>
       </c>
       <c r="I4">
-        <v>14.47625401959632</v>
+        <v>22.01921029639021</v>
       </c>
       <c r="J4">
-        <v>6.43387648101867</v>
+        <v>11.0004945664004</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.40822140392611</v>
+        <v>17.70828721061444</v>
       </c>
       <c r="N4">
-        <v>11.95660528690492</v>
+        <v>17.9052057720829</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.41394224850743</v>
+        <v>12.89592227423466</v>
       </c>
       <c r="C5">
-        <v>13.54675300195109</v>
+        <v>8.638083323219295</v>
       </c>
       <c r="D5">
-        <v>5.986449626702626</v>
+        <v>9.862935612915678</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>25.18319050042793</v>
+        <v>33.70782366918459</v>
       </c>
       <c r="G5">
-        <v>30.70737661990358</v>
+        <v>35.45208622102651</v>
       </c>
       <c r="H5">
-        <v>10.29843692258194</v>
+        <v>15.81175710411707</v>
       </c>
       <c r="I5">
-        <v>14.47327247987383</v>
+        <v>22.04179689560709</v>
       </c>
       <c r="J5">
-        <v>6.43689106683199</v>
+        <v>11.00790033206611</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.19279211201209</v>
+        <v>17.67375695134184</v>
       </c>
       <c r="N5">
-        <v>12.0152028279097</v>
+        <v>17.92281266588625</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.35132689194486</v>
+        <v>12.87450470620865</v>
       </c>
       <c r="C6">
-        <v>13.49772994606598</v>
+        <v>8.617553279647089</v>
       </c>
       <c r="D6">
-        <v>5.980521245603156</v>
+        <v>9.862882228526884</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>25.14861784575199</v>
+        <v>33.70741806021908</v>
       </c>
       <c r="G6">
-        <v>30.64738068131584</v>
+        <v>35.44632724277797</v>
       </c>
       <c r="H6">
-        <v>10.29384825338683</v>
+        <v>15.81347297781629</v>
       </c>
       <c r="I6">
-        <v>14.47301525294594</v>
+        <v>22.04562988061585</v>
       </c>
       <c r="J6">
-        <v>6.437442166147485</v>
+        <v>11.00915217712179</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.15680467344001</v>
+        <v>17.66807019159541</v>
       </c>
       <c r="N6">
-        <v>12.02497680405219</v>
+        <v>17.92576462994042</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.78161992968727</v>
+        <v>13.02265134845155</v>
       </c>
       <c r="C7">
-        <v>13.83467685938077</v>
+        <v>8.759180049231791</v>
       </c>
       <c r="D7">
-        <v>6.021754183093646</v>
+        <v>9.863361094487653</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>25.38994254582981</v>
+        <v>33.71111345447464</v>
       </c>
       <c r="G7">
-        <v>31.0648202081424</v>
+        <v>35.48749533094236</v>
       </c>
       <c r="H7">
-        <v>10.32648191378154</v>
+        <v>15.80187567242875</v>
       </c>
       <c r="I7">
-        <v>14.47619773456454</v>
+        <v>22.01950937319753</v>
       </c>
       <c r="J7">
-        <v>6.433913731522677</v>
+        <v>11.00059296005637</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.40533067731724</v>
+        <v>17.70781839497899</v>
       </c>
       <c r="N7">
-        <v>11.9573926300964</v>
+        <v>17.90544132508212</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.57399996042551</v>
+        <v>13.66216910435011</v>
       </c>
       <c r="C8">
-        <v>15.23979424734346</v>
+        <v>9.361307700248318</v>
       </c>
       <c r="D8">
-        <v>6.205502753979294</v>
+        <v>9.86814642627925</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>26.48689230138354</v>
+        <v>33.74919439843237</v>
       </c>
       <c r="G8">
-        <v>32.92822029411183</v>
+        <v>35.69853264747509</v>
       </c>
       <c r="H8">
-        <v>10.49028422576094</v>
+        <v>15.75845464690278</v>
       </c>
       <c r="I8">
-        <v>14.5262117055599</v>
+        <v>21.91627462734996</v>
       </c>
       <c r="J8">
-        <v>6.425883610163114</v>
+        <v>10.96603855338803</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.46891865803685</v>
+        <v>17.88982489223102</v>
       </c>
       <c r="N8">
-        <v>11.66532632306404</v>
+        <v>17.81986975857104</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.71281222896746</v>
+        <v>14.85260491395215</v>
       </c>
       <c r="C9">
-        <v>17.70707895887235</v>
+        <v>10.45048602205666</v>
       </c>
       <c r="D9">
-        <v>6.569854410222449</v>
+        <v>9.887050411155478</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>28.74011156475495</v>
+        <v>33.90193434108265</v>
       </c>
       <c r="G9">
-        <v>36.63049242529078</v>
+        <v>36.21568836132817</v>
       </c>
       <c r="H9">
-        <v>10.8862293006032</v>
+        <v>15.70132631153355</v>
       </c>
       <c r="I9">
-        <v>14.76669952297296</v>
+        <v>21.75742130532988</v>
       </c>
       <c r="J9">
-        <v>6.439177299667811</v>
+        <v>10.90983256178381</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.47566792967419</v>
+        <v>18.26829170889597</v>
       </c>
       <c r="N9">
-        <v>11.1125546007495</v>
+        <v>17.66673592111214</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.79600972960398</v>
+        <v>15.67893532435435</v>
       </c>
       <c r="C10">
-        <v>19.34982598996093</v>
+        <v>11.18835499013614</v>
       </c>
       <c r="D10">
-        <v>6.838029648993194</v>
+        <v>9.906661179391946</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>30.44782159696168</v>
+        <v>34.06137429445021</v>
       </c>
       <c r="G10">
-        <v>39.36068724994454</v>
+        <v>36.65607489559478</v>
       </c>
       <c r="H10">
-        <v>11.22559795644114</v>
+        <v>15.67655491071058</v>
       </c>
       <c r="I10">
-        <v>15.04176990055524</v>
+        <v>21.66759941215282</v>
       </c>
       <c r="J10">
-        <v>6.468521096313904</v>
+        <v>10.8755804074125</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>19.09235096993538</v>
+        <v>18.55743451871232</v>
       </c>
       <c r="N10">
-        <v>10.71636376058868</v>
+        <v>17.56307372670002</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.69678529279355</v>
+        <v>16.04272179305428</v>
       </c>
       <c r="C11">
-        <v>20.06158194373618</v>
+        <v>11.50946950585979</v>
       </c>
       <c r="D11">
-        <v>6.959778707006779</v>
+        <v>9.916805537471857</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>31.23449436585282</v>
+        <v>34.14403356739538</v>
       </c>
       <c r="G11">
-        <v>40.60237403986989</v>
+        <v>36.86888326940213</v>
       </c>
       <c r="H11">
-        <v>11.39107771473445</v>
+        <v>15.66904143796041</v>
       </c>
       <c r="I11">
-        <v>15.19062153741427</v>
+        <v>21.63263944438696</v>
       </c>
       <c r="J11">
-        <v>6.486546201897363</v>
+        <v>10.86152693067462</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>19.79263786904669</v>
+        <v>18.69092639797717</v>
       </c>
       <c r="N11">
-        <v>10.53774915927241</v>
+        <v>17.51781468268616</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.03127189521286</v>
+        <v>16.17862044279521</v>
       </c>
       <c r="C12">
-        <v>20.32611232210153</v>
+        <v>11.62890927187173</v>
       </c>
       <c r="D12">
-        <v>7.005821481071804</v>
+        <v>9.920820981058331</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>31.53371457909602</v>
+        <v>34.17677639050469</v>
       </c>
       <c r="G12">
-        <v>41.07241570393593</v>
+        <v>36.95119959008109</v>
       </c>
       <c r="H12">
-        <v>11.45538127430025</v>
+        <v>15.66673751146418</v>
       </c>
       <c r="I12">
-        <v>15.25058280617881</v>
+        <v>21.62025445270736</v>
       </c>
       <c r="J12">
-        <v>6.494080997045623</v>
+        <v>10.85642493193685</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>20.05287266687332</v>
+        <v>18.74171928754257</v>
       </c>
       <c r="N12">
-        <v>10.47029741992001</v>
+        <v>17.50094754336188</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.9595264818675</v>
+        <v>16.1494366445378</v>
       </c>
       <c r="C13">
-        <v>20.26936127376521</v>
+        <v>11.60328276901188</v>
       </c>
       <c r="D13">
-        <v>6.9959084232297</v>
+        <v>9.919948476657204</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>31.46921423584072</v>
+        <v>34.16966078819888</v>
       </c>
       <c r="G13">
-        <v>40.97119185102361</v>
+        <v>36.93339539123398</v>
       </c>
       <c r="H13">
-        <v>11.44145870245497</v>
+        <v>15.66720961303269</v>
       </c>
       <c r="I13">
-        <v>15.23750635429251</v>
+        <v>21.62288373955562</v>
       </c>
       <c r="J13">
-        <v>6.49242610761716</v>
+        <v>10.85751396502631</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>19.99704477805949</v>
+        <v>18.73076997659733</v>
       </c>
       <c r="N13">
-        <v>10.48481687332835</v>
+        <v>17.50456813113104</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.72443559522527</v>
+        <v>16.05394014088877</v>
       </c>
       <c r="C14">
-        <v>20.08344446523956</v>
+        <v>11.51933950860653</v>
       </c>
       <c r="D14">
-        <v>6.963568028292768</v>
+        <v>9.917132414682147</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>31.25908521686532</v>
+        <v>34.14669854263816</v>
       </c>
       <c r="G14">
-        <v>40.6410482005583</v>
+        <v>36.87562118078201</v>
       </c>
       <c r="H14">
-        <v>11.3963348844525</v>
+        <v>15.66884103849521</v>
       </c>
       <c r="I14">
-        <v>15.19548152053161</v>
+        <v>21.63160338796219</v>
       </c>
       <c r="J14">
-        <v>6.487151667670766</v>
+        <v>10.86110278199042</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>19.81414608933395</v>
+        <v>18.69510052716052</v>
       </c>
       <c r="N14">
-        <v>10.53219641951631</v>
+        <v>17.516421579928</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.57957764693796</v>
+        <v>15.99520040028813</v>
       </c>
       <c r="C15">
-        <v>19.96891792831321</v>
+        <v>11.46763882606179</v>
       </c>
       <c r="D15">
-        <v>6.943749970100116</v>
+        <v>9.915430095946226</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>31.13054563984231</v>
+        <v>34.13282075112226</v>
       </c>
       <c r="G15">
-        <v>40.4388030036602</v>
+        <v>36.84045620516171</v>
       </c>
       <c r="H15">
-        <v>11.36891013589623</v>
+        <v>15.66991085527705</v>
       </c>
       <c r="I15">
-        <v>15.17021353407893</v>
+        <v>21.63705573491514</v>
       </c>
       <c r="J15">
-        <v>6.484014377447157</v>
+        <v>10.86332965421179</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>19.70147416247969</v>
+        <v>18.67328235827838</v>
       </c>
       <c r="N15">
-        <v>10.56124051307373</v>
+        <v>17.52371747376754</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.73620897725992</v>
+        <v>15.65490687075504</v>
       </c>
       <c r="C16">
-        <v>19.30260553139004</v>
+        <v>11.16707063903527</v>
       </c>
       <c r="D16">
-        <v>6.830065841778864</v>
+        <v>9.906022676796585</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>30.39659993112292</v>
+        <v>34.05617491193031</v>
       </c>
       <c r="G16">
-        <v>39.27952246432979</v>
+        <v>36.64241306363568</v>
       </c>
       <c r="H16">
-        <v>11.2150105457423</v>
+        <v>15.67712161240958</v>
       </c>
       <c r="I16">
-        <v>15.03253522890765</v>
+        <v>21.670003302321</v>
       </c>
       <c r="J16">
-        <v>6.467440309740612</v>
+        <v>10.87652958463167</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>19.04588715899982</v>
+        <v>18.54874657915796</v>
       </c>
       <c r="N16">
-        <v>10.72806523877799</v>
+        <v>17.56606957520972</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.20690800223946</v>
+        <v>15.44295660364678</v>
       </c>
       <c r="C17">
-        <v>18.88482114302089</v>
+        <v>10.97890417294376</v>
       </c>
       <c r="D17">
-        <v>6.760241996204552</v>
+        <v>9.900563523669746</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>29.94878936200485</v>
+        <v>34.01173956865561</v>
       </c>
       <c r="G17">
-        <v>38.56815861840107</v>
+        <v>36.52407127877915</v>
       </c>
       <c r="H17">
-        <v>11.12347197223869</v>
+        <v>15.68250795777162</v>
       </c>
       <c r="I17">
-        <v>14.95428188479413</v>
+        <v>21.69173052053054</v>
       </c>
       <c r="J17">
-        <v>6.458495975095921</v>
+        <v>10.88501869125037</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>18.63477617007476</v>
+        <v>18.47282182907491</v>
       </c>
       <c r="N17">
-        <v>10.83078831489014</v>
+        <v>17.59253621239961</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.89804753555549</v>
+        <v>15.319914073858</v>
       </c>
       <c r="C18">
-        <v>18.64117034300778</v>
+        <v>10.8693098790199</v>
       </c>
       <c r="D18">
-        <v>6.720059388445705</v>
+        <v>9.897538829824324</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>29.69214850395922</v>
+        <v>33.98713599550779</v>
       </c>
       <c r="G18">
-        <v>38.15897537263585</v>
+        <v>36.45718244300809</v>
       </c>
       <c r="H18">
-        <v>11.0718635146397</v>
+        <v>15.68595943523516</v>
       </c>
       <c r="I18">
-        <v>14.91149478054803</v>
+        <v>21.70478252842014</v>
       </c>
       <c r="J18">
-        <v>6.453789323308408</v>
+        <v>10.89004522257284</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>18.39500076175696</v>
+        <v>18.42933871895982</v>
       </c>
       <c r="N18">
-        <v>10.89002685388502</v>
+        <v>17.60793779580337</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.79270980086002</v>
+        <v>15.27806297980333</v>
       </c>
       <c r="C19">
-        <v>18.55809526092565</v>
+        <v>10.83197080019443</v>
       </c>
       <c r="D19">
-        <v>6.706451354134181</v>
+        <v>9.896534574177036</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>29.60541704156388</v>
+        <v>33.97896999747548</v>
       </c>
       <c r="G19">
-        <v>38.02043340575546</v>
+        <v>36.43473925453706</v>
       </c>
       <c r="H19">
-        <v>11.054567433823</v>
+        <v>15.68718869876957</v>
       </c>
       <c r="I19">
-        <v>14.89738377247662</v>
+        <v>21.70929689158867</v>
       </c>
       <c r="J19">
-        <v>6.452269850026441</v>
+        <v>10.89177182038373</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>18.31324441540833</v>
+        <v>18.41464936318022</v>
       </c>
       <c r="N19">
-        <v>10.91011197922031</v>
+        <v>17.61318323660221</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.26370963032624</v>
+        <v>15.46563736766237</v>
       </c>
       <c r="C20">
-        <v>18.92964114943027</v>
+        <v>10.99907671071946</v>
       </c>
       <c r="D20">
-        <v>6.767677316388647</v>
+        <v>9.901132743708349</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>29.99636429312398</v>
+        <v>34.01637110501264</v>
       </c>
       <c r="G20">
-        <v>38.6438882561033</v>
+        <v>36.53654746695328</v>
       </c>
       <c r="H20">
-        <v>11.13310824003669</v>
+        <v>15.68189798702254</v>
       </c>
       <c r="I20">
-        <v>14.96238075565735</v>
+        <v>21.68936013393254</v>
       </c>
       <c r="J20">
-        <v>6.459402534307807</v>
+        <v>10.88410012614825</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>18.67888200586421</v>
+        <v>18.48088509983429</v>
       </c>
       <c r="N20">
-        <v>10.81983755817187</v>
+        <v>17.58970031155058</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.7936660598454</v>
+        <v>16.08204110350923</v>
       </c>
       <c r="C21">
-        <v>20.1381873833233</v>
+        <v>11.54405476263472</v>
       </c>
       <c r="D21">
-        <v>6.973069025430167</v>
+        <v>9.917954853992663</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>31.32076976951176</v>
+        <v>34.15340411872706</v>
       </c>
       <c r="G21">
-        <v>40.73802421415026</v>
+        <v>36.89254443018034</v>
       </c>
       <c r="H21">
-        <v>11.40954397996347</v>
+        <v>15.66834715075967</v>
       </c>
       <c r="I21">
-        <v>15.20772624970814</v>
+        <v>21.62901901002472</v>
       </c>
       <c r="J21">
-        <v>6.488681354682428</v>
+        <v>10.86004269541646</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>19.8680012939611</v>
+        <v>18.70557124439611</v>
       </c>
       <c r="N21">
-        <v>10.51827524412452</v>
+        <v>17.51293257765539</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.75507208721917</v>
+        <v>16.47401436070498</v>
       </c>
       <c r="C22">
-        <v>20.89897970939917</v>
+        <v>11.8876198808991</v>
       </c>
       <c r="D22">
-        <v>7.106940078530576</v>
+        <v>9.929962285933781</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>32.19405269376377</v>
+        <v>34.25135698246143</v>
       </c>
       <c r="G22">
-        <v>42.10574439771932</v>
+        <v>37.1352628940655</v>
       </c>
       <c r="H22">
-        <v>11.59979126741733</v>
+        <v>15.66264618731149</v>
       </c>
       <c r="I22">
-        <v>15.38910575041716</v>
+        <v>21.59456018575322</v>
       </c>
       <c r="J22">
-        <v>6.511967980352596</v>
+        <v>10.8456006371754</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>20.61636927806583</v>
+        <v>18.85381127810777</v>
       </c>
       <c r="N22">
-        <v>10.32224545952579</v>
+        <v>17.46434218590217</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.24543216509245</v>
+        <v>16.26584156451952</v>
       </c>
       <c r="C23">
-        <v>20.49554989826632</v>
+        <v>11.70542582646086</v>
       </c>
       <c r="D23">
-        <v>7.035531352489855</v>
+        <v>9.923461646702396</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>31.72727862090315</v>
+        <v>34.19831521519799</v>
       </c>
       <c r="G23">
-        <v>41.37586798380227</v>
+        <v>37.00482155987267</v>
       </c>
       <c r="H23">
-        <v>11.49736120174641</v>
+        <v>15.66539983856161</v>
       </c>
       <c r="I23">
-        <v>15.29031652428004</v>
+        <v>21.61249442708329</v>
       </c>
       <c r="J23">
-        <v>6.499147112218923</v>
+        <v>10.8531914309592</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>20.21954865133229</v>
+        <v>18.77457819867717</v>
       </c>
       <c r="N23">
-        <v>10.42678960215676</v>
+        <v>17.49013150903722</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.23804382158914</v>
+        <v>15.45538709019208</v>
       </c>
       <c r="C24">
-        <v>18.90938881327733</v>
+        <v>10.98996110824528</v>
       </c>
       <c r="D24">
-        <v>6.764315930565654</v>
+        <v>9.900875044575494</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>29.97485313215559</v>
+        <v>34.01427424915421</v>
       </c>
       <c r="G24">
-        <v>38.60965153335735</v>
+        <v>36.530903403244</v>
       </c>
       <c r="H24">
-        <v>11.12874851492205</v>
+        <v>15.6821726496677</v>
       </c>
       <c r="I24">
-        <v>14.95871241202311</v>
+        <v>21.69043003934589</v>
       </c>
       <c r="J24">
-        <v>6.458991324950173</v>
+        <v>10.8845149545501</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>18.65895242489373</v>
+        <v>18.4772391717921</v>
       </c>
       <c r="N24">
-        <v>10.82478782593857</v>
+        <v>17.59098184416383</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.90329959883144</v>
+        <v>14.5384240240739</v>
       </c>
       <c r="C25">
-        <v>17.06989150586645</v>
+        <v>10.16638500994544</v>
       </c>
       <c r="D25">
-        <v>6.471070137150687</v>
+        <v>9.880925182516357</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>28.12074098321686</v>
+        <v>33.85228538010474</v>
       </c>
       <c r="G25">
-        <v>35.62602706516967</v>
+        <v>36.06496479265007</v>
       </c>
       <c r="H25">
-        <v>10.77080116216338</v>
+        <v>15.71376806917678</v>
       </c>
       <c r="I25">
-        <v>14.68517904377641</v>
+        <v>21.79569565824731</v>
       </c>
       <c r="J25">
-        <v>6.432282438330803</v>
+        <v>10.923800890239</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.90909029515687</v>
+        <v>18.16380787280346</v>
       </c>
       <c r="N25">
-        <v>11.260179228724</v>
+        <v>17.70660226399653</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_85/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_85/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.83153325455461</v>
+        <v>20.03397106252667</v>
       </c>
       <c r="C2">
-        <v>9.518543096261279</v>
+        <v>15.6008095161023</v>
       </c>
       <c r="D2">
-        <v>9.870090033227875</v>
+        <v>6.255640217391645</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>33.76480328072879</v>
+        <v>26.79143748701078</v>
       </c>
       <c r="G2">
-        <v>35.76278588855376</v>
+        <v>33.43723732858174</v>
       </c>
       <c r="H2">
-        <v>15.74858100197578</v>
+        <v>10.53960665016509</v>
       </c>
       <c r="I2">
-        <v>21.8912410362051</v>
+        <v>14.54895846255373</v>
       </c>
       <c r="J2">
-        <v>10.95745808059241</v>
+        <v>6.425605802062032</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.9406722268067</v>
+        <v>15.7485370750573</v>
       </c>
       <c r="N2">
-        <v>17.79768077018286</v>
+        <v>11.58762081389166</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.3357796900488</v>
+        <v>18.67125408052098</v>
       </c>
       <c r="C3">
-        <v>9.05576583863513</v>
+        <v>14.53177316762901</v>
       </c>
       <c r="D3">
-        <v>9.865177462125187</v>
+        <v>6.110590674197251</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>33.72546402556804</v>
+        <v>25.91622507517234</v>
       </c>
       <c r="G3">
-        <v>35.58433846846839</v>
+        <v>31.96520606771983</v>
       </c>
       <c r="H3">
-        <v>15.77933918091383</v>
+        <v>10.40214865570054</v>
       </c>
       <c r="I3">
-        <v>21.96714252851059</v>
+        <v>14.49347463690983</v>
       </c>
       <c r="J3">
-        <v>10.98322009818914</v>
+        <v>6.428565170791474</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.79489313370272</v>
+        <v>14.92779753813892</v>
       </c>
       <c r="N3">
-        <v>17.86314968782587</v>
+        <v>11.81455796352476</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.02437772636632</v>
+        <v>17.78659636175958</v>
       </c>
       <c r="C4">
-        <v>8.760825294059387</v>
+        <v>13.83857455281571</v>
       </c>
       <c r="D4">
-        <v>9.863368163505468</v>
+        <v>6.022237762069453</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>33.71116860927007</v>
+        <v>25.39278450895042</v>
       </c>
       <c r="G4">
-        <v>35.48799320176884</v>
+        <v>31.06971797354215</v>
       </c>
       <c r="H4">
-        <v>15.80174420562722</v>
+        <v>10.32687441120848</v>
       </c>
       <c r="I4">
-        <v>22.01921029639021</v>
+        <v>14.47625401959619</v>
       </c>
       <c r="J4">
-        <v>11.0004945664004</v>
+        <v>6.433876481018698</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>17.70828721061444</v>
+        <v>14.40822140392613</v>
       </c>
       <c r="N4">
-        <v>17.9052057720829</v>
+        <v>11.95660528690488</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.89592227423466</v>
+        <v>17.41394224850743</v>
       </c>
       <c r="C5">
-        <v>8.638083323219295</v>
+        <v>13.54675300195107</v>
       </c>
       <c r="D5">
-        <v>9.862935612915678</v>
+        <v>5.986449626702798</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>33.70782366918459</v>
+        <v>25.18319050042803</v>
       </c>
       <c r="G5">
-        <v>35.45208622102651</v>
+        <v>30.70737661990365</v>
       </c>
       <c r="H5">
-        <v>15.81175710411707</v>
+        <v>10.29843692258204</v>
       </c>
       <c r="I5">
-        <v>22.04179689560709</v>
+        <v>14.47327247987386</v>
       </c>
       <c r="J5">
-        <v>11.00790033206611</v>
+        <v>6.43689106683196</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>17.67375695134184</v>
+        <v>14.19279211201212</v>
       </c>
       <c r="N5">
-        <v>17.92281266588625</v>
+        <v>12.0152028279097</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.87450470620865</v>
+        <v>17.3513268919449</v>
       </c>
       <c r="C6">
-        <v>8.617553279647089</v>
+        <v>13.49772994606602</v>
       </c>
       <c r="D6">
-        <v>9.862882228526884</v>
+        <v>5.980521245603128</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>33.70741806021908</v>
+        <v>25.14861784575198</v>
       </c>
       <c r="G6">
-        <v>35.44632724277797</v>
+        <v>30.64738068131582</v>
       </c>
       <c r="H6">
-        <v>15.81347297781629</v>
+        <v>10.29384825338688</v>
       </c>
       <c r="I6">
-        <v>22.04562988061585</v>
+        <v>14.47301525294597</v>
       </c>
       <c r="J6">
-        <v>11.00915217712179</v>
+        <v>6.437442166147513</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>17.66807019159541</v>
+        <v>14.15680467343999</v>
       </c>
       <c r="N6">
-        <v>17.92576462994042</v>
+        <v>12.02497680405222</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.02265134845155</v>
+        <v>17.78161992968728</v>
       </c>
       <c r="C7">
-        <v>8.759180049231791</v>
+        <v>13.83467685938082</v>
       </c>
       <c r="D7">
-        <v>9.863361094487653</v>
+        <v>6.021754183093578</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>33.71111345447464</v>
+        <v>25.38994254582987</v>
       </c>
       <c r="G7">
-        <v>35.48749533094236</v>
+        <v>31.0648202081425</v>
       </c>
       <c r="H7">
-        <v>15.80187567242875</v>
+        <v>10.32648191378163</v>
       </c>
       <c r="I7">
-        <v>22.01950937319753</v>
+        <v>14.47619773456459</v>
       </c>
       <c r="J7">
-        <v>11.00059296005637</v>
+        <v>6.433913731522709</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>17.70781839497899</v>
+        <v>14.40533067731725</v>
       </c>
       <c r="N7">
-        <v>17.90544132508212</v>
+        <v>11.9573926300964</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.66216910435011</v>
+        <v>19.57399996042561</v>
       </c>
       <c r="C8">
-        <v>9.361307700248318</v>
+        <v>15.23979424734332</v>
       </c>
       <c r="D8">
-        <v>9.86814642627925</v>
+        <v>6.205502753979276</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>33.74919439843237</v>
+        <v>26.4868923013835</v>
       </c>
       <c r="G8">
-        <v>35.69853264747509</v>
+        <v>32.9282202941118</v>
       </c>
       <c r="H8">
-        <v>15.75845464690278</v>
+        <v>10.49028422576092</v>
       </c>
       <c r="I8">
-        <v>21.91627462734996</v>
+        <v>14.52621170555975</v>
       </c>
       <c r="J8">
-        <v>10.96603855338803</v>
+        <v>6.425883610163121</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.88982489223102</v>
+        <v>15.46891865803683</v>
       </c>
       <c r="N8">
-        <v>17.81986975857104</v>
+        <v>11.66532632306397</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.85260491395215</v>
+        <v>22.71281222896745</v>
       </c>
       <c r="C9">
-        <v>10.45048602205666</v>
+        <v>17.7070789588723</v>
       </c>
       <c r="D9">
-        <v>9.887050411155478</v>
+        <v>6.569854410222402</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>33.90193434108265</v>
+        <v>28.74011156475503</v>
       </c>
       <c r="G9">
-        <v>36.21568836132817</v>
+        <v>36.63049242529078</v>
       </c>
       <c r="H9">
-        <v>15.70132631153355</v>
+        <v>10.88622930060323</v>
       </c>
       <c r="I9">
-        <v>21.75742130532988</v>
+        <v>14.76669952297303</v>
       </c>
       <c r="J9">
-        <v>10.90983256178381</v>
+        <v>6.439177299667738</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>18.26829170889597</v>
+        <v>17.47566792967418</v>
       </c>
       <c r="N9">
-        <v>17.66673592111214</v>
+        <v>11.1125546007495</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.67893532435435</v>
+        <v>24.79600972960402</v>
       </c>
       <c r="C10">
-        <v>11.18835499013614</v>
+        <v>19.34982598996102</v>
       </c>
       <c r="D10">
-        <v>9.906661179391946</v>
+        <v>6.83802964899322</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>34.06137429445021</v>
+        <v>30.44782159696167</v>
       </c>
       <c r="G10">
-        <v>36.65607489559478</v>
+        <v>39.36068724994462</v>
       </c>
       <c r="H10">
-        <v>15.67655491071058</v>
+        <v>11.22559795644109</v>
       </c>
       <c r="I10">
-        <v>21.66759941215282</v>
+        <v>15.04176990055522</v>
       </c>
       <c r="J10">
-        <v>10.8755804074125</v>
+        <v>6.468521096313892</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>18.55743451871232</v>
+        <v>19.09235096993543</v>
       </c>
       <c r="N10">
-        <v>17.56307372670002</v>
+        <v>10.71636376058868</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.04272179305428</v>
+        <v>25.69678529279356</v>
       </c>
       <c r="C11">
-        <v>11.50946950585979</v>
+        <v>20.06158194373619</v>
       </c>
       <c r="D11">
-        <v>9.916805537471857</v>
+        <v>6.95977870700676</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>34.14403356739538</v>
+        <v>31.23449436585284</v>
       </c>
       <c r="G11">
-        <v>36.86888326940213</v>
+        <v>40.60237403986997</v>
       </c>
       <c r="H11">
-        <v>15.66904143796041</v>
+        <v>11.39107771473445</v>
       </c>
       <c r="I11">
-        <v>21.63263944438696</v>
+        <v>15.19062153741431</v>
       </c>
       <c r="J11">
-        <v>10.86152693067462</v>
+        <v>6.48654620189741</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.69092639797717</v>
+        <v>19.79263786904666</v>
       </c>
       <c r="N11">
-        <v>17.51781468268616</v>
+        <v>10.53774915927237</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.17862044279521</v>
+        <v>26.03127189521292</v>
       </c>
       <c r="C12">
-        <v>11.62890927187173</v>
+        <v>20.32611232210159</v>
       </c>
       <c r="D12">
-        <v>9.920820981058331</v>
+        <v>7.005821481071861</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>34.17677639050469</v>
+        <v>31.53371457909602</v>
       </c>
       <c r="G12">
-        <v>36.95119959008109</v>
+        <v>41.07241570393598</v>
       </c>
       <c r="H12">
-        <v>15.66673751146418</v>
+        <v>11.45538127430025</v>
       </c>
       <c r="I12">
-        <v>21.62025445270736</v>
+        <v>15.25058280617874</v>
       </c>
       <c r="J12">
-        <v>10.85642493193685</v>
+        <v>6.494080997045574</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.74171928754257</v>
+        <v>20.05287266687335</v>
       </c>
       <c r="N12">
-        <v>17.50094754336188</v>
+        <v>10.47029741991991</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.1494366445378</v>
+        <v>25.95952648186759</v>
       </c>
       <c r="C13">
-        <v>11.60328276901188</v>
+        <v>20.26936127376517</v>
       </c>
       <c r="D13">
-        <v>9.919948476657204</v>
+        <v>6.995908423229596</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>34.16966078819888</v>
+        <v>31.46921423584078</v>
       </c>
       <c r="G13">
-        <v>36.93339539123398</v>
+        <v>40.97119185102371</v>
       </c>
       <c r="H13">
-        <v>15.66720961303269</v>
+        <v>11.44145870245501</v>
       </c>
       <c r="I13">
-        <v>21.62288373955562</v>
+        <v>15.23750635429251</v>
       </c>
       <c r="J13">
-        <v>10.85751396502631</v>
+        <v>6.492426107617106</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.73076997659733</v>
+        <v>19.99704477805953</v>
       </c>
       <c r="N13">
-        <v>17.50456813113104</v>
+        <v>10.48481687332838</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.05394014088877</v>
+        <v>25.72443559522532</v>
       </c>
       <c r="C14">
-        <v>11.51933950860653</v>
+        <v>20.08344446523945</v>
       </c>
       <c r="D14">
-        <v>9.917132414682147</v>
+        <v>6.963568028292709</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>34.14669854263816</v>
+        <v>31.25908521686534</v>
       </c>
       <c r="G14">
-        <v>36.87562118078201</v>
+        <v>40.64104820055834</v>
       </c>
       <c r="H14">
-        <v>15.66884103849521</v>
+        <v>11.39633488445252</v>
       </c>
       <c r="I14">
-        <v>21.63160338796219</v>
+        <v>15.19548152053161</v>
       </c>
       <c r="J14">
-        <v>10.86110278199042</v>
+        <v>6.487151667670743</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.69510052716052</v>
+        <v>19.81414608933397</v>
       </c>
       <c r="N14">
-        <v>17.516421579928</v>
+        <v>10.53219641951634</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.99520040028813</v>
+        <v>25.57957764693802</v>
       </c>
       <c r="C15">
-        <v>11.46763882606179</v>
+        <v>19.96891792831335</v>
       </c>
       <c r="D15">
-        <v>9.915430095946226</v>
+        <v>6.943749970100188</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>34.13282075112226</v>
+        <v>31.13054563984227</v>
       </c>
       <c r="G15">
-        <v>36.84045620516171</v>
+        <v>40.43880300366021</v>
       </c>
       <c r="H15">
-        <v>15.66991085527705</v>
+        <v>11.36891013589619</v>
       </c>
       <c r="I15">
-        <v>21.63705573491514</v>
+        <v>15.17021353407888</v>
       </c>
       <c r="J15">
-        <v>10.86332965421179</v>
+        <v>6.484014377447066</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.67328235827838</v>
+        <v>19.70147416247977</v>
       </c>
       <c r="N15">
-        <v>17.52371747376754</v>
+        <v>10.56124051307363</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.65490687075504</v>
+        <v>24.73620897726001</v>
       </c>
       <c r="C16">
-        <v>11.16707063903527</v>
+        <v>19.30260553139007</v>
       </c>
       <c r="D16">
-        <v>9.906022676796585</v>
+        <v>6.830065841778857</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>34.05617491193031</v>
+        <v>30.39659993112292</v>
       </c>
       <c r="G16">
-        <v>36.64241306363568</v>
+        <v>39.27952246432992</v>
       </c>
       <c r="H16">
-        <v>15.67712161240958</v>
+        <v>11.21501054574222</v>
       </c>
       <c r="I16">
-        <v>21.670003302321</v>
+        <v>15.03253522890762</v>
       </c>
       <c r="J16">
-        <v>10.87652958463167</v>
+        <v>6.46744030974059</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>18.54874657915796</v>
+        <v>19.04588715899986</v>
       </c>
       <c r="N16">
-        <v>17.56606957520972</v>
+        <v>10.72806523877798</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.44295660364678</v>
+        <v>24.2069080022395</v>
       </c>
       <c r="C17">
-        <v>10.97890417294376</v>
+        <v>18.88482114302083</v>
       </c>
       <c r="D17">
-        <v>9.900563523669746</v>
+        <v>6.760241996204545</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>34.01173956865561</v>
+        <v>29.94878936200488</v>
       </c>
       <c r="G17">
-        <v>36.52407127877915</v>
+        <v>38.56815861840109</v>
       </c>
       <c r="H17">
-        <v>15.68250795777162</v>
+        <v>11.12347197223872</v>
       </c>
       <c r="I17">
-        <v>21.69173052053054</v>
+        <v>14.95428188479413</v>
       </c>
       <c r="J17">
-        <v>10.88501869125037</v>
+        <v>6.458495975095994</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>18.47282182907491</v>
+        <v>18.63477617007476</v>
       </c>
       <c r="N17">
-        <v>17.59253621239961</v>
+        <v>10.83078831489014</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.319914073858</v>
+        <v>23.89804753555556</v>
       </c>
       <c r="C18">
-        <v>10.8693098790199</v>
+        <v>18.64117034300781</v>
       </c>
       <c r="D18">
-        <v>9.897538829824324</v>
+        <v>6.720059388445668</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>33.98713599550779</v>
+        <v>29.69214850395916</v>
       </c>
       <c r="G18">
-        <v>36.45718244300809</v>
+        <v>38.15897537263581</v>
       </c>
       <c r="H18">
-        <v>15.68595943523516</v>
+        <v>11.07186351463968</v>
       </c>
       <c r="I18">
-        <v>21.70478252842014</v>
+        <v>14.91149478054799</v>
       </c>
       <c r="J18">
-        <v>10.89004522257284</v>
+        <v>6.453789323308411</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>18.42933871895982</v>
+        <v>18.39500076175699</v>
       </c>
       <c r="N18">
-        <v>17.60793779580337</v>
+        <v>10.89002685388502</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.27806297980333</v>
+        <v>23.79270980085998</v>
       </c>
       <c r="C19">
-        <v>10.83197080019443</v>
+        <v>18.5580952609257</v>
       </c>
       <c r="D19">
-        <v>9.896534574177036</v>
+        <v>6.706451354134137</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>33.97896999747548</v>
+        <v>29.60541704156386</v>
       </c>
       <c r="G19">
-        <v>36.43473925453706</v>
+        <v>38.02043340575541</v>
       </c>
       <c r="H19">
-        <v>15.68718869876957</v>
+        <v>11.05456743382302</v>
       </c>
       <c r="I19">
-        <v>21.70929689158867</v>
+        <v>14.89738377247668</v>
       </c>
       <c r="J19">
-        <v>10.89177182038373</v>
+        <v>6.452269850026382</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>18.41464936318022</v>
+        <v>18.31324441540833</v>
       </c>
       <c r="N19">
-        <v>17.61318323660221</v>
+        <v>10.91011197922035</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.46563736766237</v>
+        <v>24.26370963032623</v>
       </c>
       <c r="C20">
-        <v>10.99907671071946</v>
+        <v>18.92964114943041</v>
       </c>
       <c r="D20">
-        <v>9.901132743708349</v>
+        <v>6.767677316388579</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>34.01637110501264</v>
+        <v>29.99636429312399</v>
       </c>
       <c r="G20">
-        <v>36.53654746695328</v>
+        <v>38.64388825610334</v>
       </c>
       <c r="H20">
-        <v>15.68189798702254</v>
+        <v>11.13310824003667</v>
       </c>
       <c r="I20">
-        <v>21.68936013393254</v>
+        <v>14.96238075565734</v>
       </c>
       <c r="J20">
-        <v>10.88410012614825</v>
+        <v>6.459402534307733</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>18.48088509983429</v>
+        <v>18.67888200586424</v>
       </c>
       <c r="N20">
-        <v>17.58970031155058</v>
+        <v>10.81983755817183</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.08204110350923</v>
+        <v>25.79366605984546</v>
       </c>
       <c r="C21">
-        <v>11.54405476263472</v>
+        <v>20.13818738332323</v>
       </c>
       <c r="D21">
-        <v>9.917954853992663</v>
+        <v>6.973069025430088</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>34.15340411872706</v>
+        <v>31.32076976951176</v>
       </c>
       <c r="G21">
-        <v>36.89254443018034</v>
+        <v>40.73802421415033</v>
       </c>
       <c r="H21">
-        <v>15.66834715075967</v>
+        <v>11.40954397996346</v>
       </c>
       <c r="I21">
-        <v>21.62901901002472</v>
+        <v>15.2077262497081</v>
       </c>
       <c r="J21">
-        <v>10.86004269541646</v>
+        <v>6.488681354682383</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.70557124439611</v>
+        <v>19.86800129396114</v>
       </c>
       <c r="N21">
-        <v>17.51293257765539</v>
+        <v>10.51827524412445</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.47401436070498</v>
+        <v>26.75507208721919</v>
       </c>
       <c r="C22">
-        <v>11.8876198808991</v>
+        <v>20.8989797093991</v>
       </c>
       <c r="D22">
-        <v>9.929962285933781</v>
+        <v>7.106940078530596</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>34.25135698246143</v>
+        <v>32.19405269376377</v>
       </c>
       <c r="G22">
-        <v>37.1352628940655</v>
+        <v>42.10574439771931</v>
       </c>
       <c r="H22">
-        <v>15.66264618731149</v>
+        <v>11.59979126741733</v>
       </c>
       <c r="I22">
-        <v>21.59456018575322</v>
+        <v>15.38910575041713</v>
       </c>
       <c r="J22">
-        <v>10.8456006371754</v>
+        <v>6.511967980352576</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.85381127810777</v>
+        <v>20.61636927806583</v>
       </c>
       <c r="N22">
-        <v>17.46434218590217</v>
+        <v>10.32224545952579</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.26584156451952</v>
+        <v>26.24543216509242</v>
       </c>
       <c r="C23">
-        <v>11.70542582646086</v>
+        <v>20.49554989826631</v>
       </c>
       <c r="D23">
-        <v>9.923461646702396</v>
+        <v>7.035531352489858</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>34.19831521519799</v>
+        <v>31.72727862090316</v>
       </c>
       <c r="G23">
-        <v>37.00482155987267</v>
+        <v>41.37586798380224</v>
       </c>
       <c r="H23">
-        <v>15.66539983856161</v>
+        <v>11.49736120174643</v>
       </c>
       <c r="I23">
-        <v>21.61249442708329</v>
+        <v>15.29031652428009</v>
       </c>
       <c r="J23">
-        <v>10.8531914309592</v>
+        <v>6.499147112218876</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.77457819867717</v>
+        <v>20.21954865133227</v>
       </c>
       <c r="N23">
-        <v>17.49013150903722</v>
+        <v>10.42678960215683</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.45538709019208</v>
+        <v>24.23804382158915</v>
       </c>
       <c r="C24">
-        <v>10.98996110824528</v>
+        <v>18.90938881327736</v>
       </c>
       <c r="D24">
-        <v>9.900875044575494</v>
+        <v>6.76431593056574</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>34.01427424915421</v>
+        <v>29.97485313215554</v>
       </c>
       <c r="G24">
-        <v>36.530903403244</v>
+        <v>38.6096515333573</v>
       </c>
       <c r="H24">
-        <v>15.6821726496677</v>
+        <v>11.12874851492203</v>
       </c>
       <c r="I24">
-        <v>21.69043003934589</v>
+        <v>14.95871241202305</v>
       </c>
       <c r="J24">
-        <v>10.8845149545501</v>
+        <v>6.458991324950049</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>18.4772391717921</v>
+        <v>18.65895242489376</v>
       </c>
       <c r="N24">
-        <v>17.59098184416383</v>
+        <v>10.82478782593847</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.5384240240739</v>
+        <v>21.90329959883151</v>
       </c>
       <c r="C25">
-        <v>10.16638500994544</v>
+        <v>17.06989150586639</v>
       </c>
       <c r="D25">
-        <v>9.880925182516357</v>
+        <v>6.471070137150687</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>33.85228538010474</v>
+        <v>28.12074098321683</v>
       </c>
       <c r="G25">
-        <v>36.06496479265007</v>
+        <v>35.62602706516969</v>
       </c>
       <c r="H25">
-        <v>15.71376806917678</v>
+        <v>10.77080116216332</v>
       </c>
       <c r="I25">
-        <v>21.79569565824731</v>
+        <v>14.68517904377638</v>
       </c>
       <c r="J25">
-        <v>10.923800890239</v>
+        <v>6.432282438330747</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>18.16380787280346</v>
+        <v>16.90909029515684</v>
       </c>
       <c r="N25">
-        <v>17.70660226399653</v>
+        <v>11.26017922872399</v>
       </c>
       <c r="O25">
         <v>0</v>
